--- a/www.eia.gov/forecasts/steo/xls/Fig16.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig16.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Inventories (Million barrels)</t>
@@ -56,7 +56,7 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note:  Colored bands around storage levels represent the range between the minimum and maximum from Jan. 2012 - Dec. 2016.</t>
@@ -1114,10 +1114,10 @@
                   <c:v>35.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.217000000000013</c:v>
+                  <c:v>42.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.477850950000004</c:v>
+                  <c:v>36.52985713999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>45.914999999999992</c:v>
@@ -1150,10 +1150,10 @@
                   <c:v>35.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.217000000000013</c:v>
+                  <c:v>42.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34.477850950000004</c:v>
+                  <c:v>36.52985713999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45.914999999999992</c:v>
@@ -1186,10 +1186,10 @@
                   <c:v>35.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.217000000000013</c:v>
+                  <c:v>42.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34.477850950000004</c:v>
+                  <c:v>36.52985713999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45.914999999999992</c:v>
@@ -1222,10 +1222,10 @@
                   <c:v>35.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>39.217000000000013</c:v>
+                  <c:v>42.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.477850950000004</c:v>
+                  <c:v>36.52985713999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45.914999999999992</c:v>
@@ -1258,10 +1258,10 @@
                   <c:v>35.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>39.217000000000013</c:v>
+                  <c:v>42.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>34.477850950000004</c:v>
+                  <c:v>36.52985713999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>45.914999999999992</c:v>
@@ -1294,10 +1294,10 @@
                   <c:v>35.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>39.217000000000013</c:v>
+                  <c:v>42.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>34.477850950000004</c:v>
+                  <c:v>36.52985713999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45.914999999999992</c:v>
@@ -1330,10 +1330,10 @@
                   <c:v>35.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>39.217000000000013</c:v>
+                  <c:v>42.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>34.477850950000004</c:v>
+                  <c:v>36.52985713999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,10 +1649,10 @@
                   <c:v>49.111000000000018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.052999999999997</c:v>
+                  <c:v>55.09</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66.013149049999981</c:v>
+                  <c:v>63.961142859999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>73.061000000000007</c:v>
@@ -1685,10 +1685,10 @@
                   <c:v>49.111000000000018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58.052999999999997</c:v>
+                  <c:v>55.09</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66.013149049999981</c:v>
+                  <c:v>63.961142859999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>73.061000000000007</c:v>
@@ -1721,10 +1721,10 @@
                   <c:v>49.111000000000018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.052999999999997</c:v>
+                  <c:v>55.09</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>66.013149049999981</c:v>
+                  <c:v>63.961142859999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>73.061000000000007</c:v>
@@ -1757,10 +1757,10 @@
                   <c:v>49.111000000000018</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>58.052999999999997</c:v>
+                  <c:v>55.09</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66.013149049999981</c:v>
+                  <c:v>63.961142859999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>73.061000000000007</c:v>
@@ -1793,10 +1793,10 @@
                   <c:v>49.111000000000018</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58.052999999999997</c:v>
+                  <c:v>55.09</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>66.013149049999981</c:v>
+                  <c:v>63.961142859999995</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>73.061000000000007</c:v>
@@ -1829,10 +1829,10 @@
                   <c:v>49.111000000000018</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>58.052999999999997</c:v>
+                  <c:v>55.09</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>66.013149049999981</c:v>
+                  <c:v>63.961142859999995</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>73.061000000000007</c:v>
@@ -1865,10 +1865,10 @@
                   <c:v>49.111000000000018</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>58.052999999999997</c:v>
+                  <c:v>55.09</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>66.013149049999981</c:v>
+                  <c:v>63.961142859999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,7 +2189,7 @@
                   <c:v>21.870999999999981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.795714280999988</c:v>
+                  <c:v>18.152999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.334000000000003</c:v>
@@ -2225,7 +2225,7 @@
                   <c:v>21.870999999999981</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.795714280999988</c:v>
+                  <c:v>18.152999999999992</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>12.334000000000003</c:v>
@@ -2261,7 +2261,7 @@
                   <c:v>21.870999999999981</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.795714280999988</c:v>
+                  <c:v>18.152999999999992</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>12.334000000000003</c:v>
@@ -2297,7 +2297,7 @@
                   <c:v>21.870999999999981</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.795714280999988</c:v>
+                  <c:v>18.152999999999992</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>12.334000000000003</c:v>
@@ -2333,7 +2333,7 @@
                   <c:v>21.870999999999981</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13.795714280999988</c:v>
+                  <c:v>18.152999999999992</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>12.334000000000003</c:v>
@@ -2369,7 +2369,7 @@
                   <c:v>21.870999999999981</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13.795714280999988</c:v>
+                  <c:v>18.152999999999992</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>12.334000000000003</c:v>
@@ -2405,7 +2405,7 @@
                   <c:v>21.870999999999981</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.795714280999988</c:v>
+                  <c:v>18.152999999999992</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>12.334000000000003</c:v>
@@ -2422,8 +2422,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408298576"/>
-        <c:axId val="408299136"/>
+        <c:axId val="656500592"/>
+        <c:axId val="656501152"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2886,82 +2886,82 @@
                   <c:v>153.88399999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>156.33971428999999</c:v>
+                  <c:v>160.173</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>162.02085095000001</c:v>
+                  <c:v>164.07285714</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>158.64599999999999</c:v>
+                  <c:v>170.17267548999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>151.86170000000001</c:v>
+                  <c:v>162.34540000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>148.0692</c:v>
+                  <c:v>157.9442</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>146.0652</c:v>
+                  <c:v>155.5179</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>149.7663</c:v>
+                  <c:v>158.87520000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>151.90559999999999</c:v>
+                  <c:v>160.7234</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>157.5967</c:v>
+                  <c:v>166.15770000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>161.1584</c:v>
+                  <c:v>169.48580000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>159.2627</c:v>
+                  <c:v>167.3724</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>152.53579999999999</c:v>
+                  <c:v>160.4418</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>154.6139</c:v>
+                  <c:v>162.33340000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>159.58009999999999</c:v>
+                  <c:v>167.21539999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>156.36949999999999</c:v>
+                  <c:v>163.8683</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148.7782</c:v>
+                  <c:v>156.36500000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>144.73500000000001</c:v>
+                  <c:v>152.19120000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>142.81440000000001</c:v>
+                  <c:v>150.20830000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>146.66229999999999</c:v>
+                  <c:v>153.9221</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>148.7927</c:v>
+                  <c:v>155.93790000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>154.5446</c:v>
+                  <c:v>161.5864</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>158.3501</c:v>
+                  <c:v>165.2927</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>156.55070000000001</c:v>
+                  <c:v>163.3938</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>149.8261</c:v>
+                  <c:v>156.57</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>151.88399999999999</c:v>
+                  <c:v>158.5341</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>156.95910000000001</c:v>
+                  <c:v>163.608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,82 +3426,82 @@
                   <c:v>224.86599999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>229.05871428099999</c:v>
+                  <c:v>233.416</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>236.105404771</c:v>
+                  <c:v>236.88514285900001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.31064000000001</c:v>
+                  <c:v>258.57071535900002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>242.27832000000001</c:v>
+                  <c:v>250.27099999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>233.65561000000002</c:v>
+                  <c:v>238.477</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>229.09199999999998</c:v>
+                  <c:v>232.00303</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>228.20678000000001</c:v>
+                  <c:v>229.96593999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>229.39655999999999</c:v>
+                  <c:v>230.46093999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>229.62535000000003</c:v>
+                  <c:v>230.27011999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>225.60679000000002</c:v>
+                  <c:v>225.99796000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.55887000000001</c:v>
+                  <c:v>226.79655</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>221.32413</c:v>
+                  <c:v>221.46883</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>229.82012</c:v>
+                  <c:v>229.90840000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>240.90970000000002</c:v>
+                  <c:v>241.36967999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>248.94657000000001</c:v>
+                  <c:v>249.29425000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>245.88207</c:v>
+                  <c:v>247.41799</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>237.56084999999999</c:v>
+                  <c:v>239.28563</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>232.79603</c:v>
+                  <c:v>234.31788</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>231.31909000000002</c:v>
+                  <c:v>232.52828</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>231.99421000000001</c:v>
+                  <c:v>232.90031000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>231.65725999999998</c:v>
+                  <c:v>232.31128999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>227.90962000000002</c:v>
+                  <c:v>228.36971</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>228.29114000000001</c:v>
+                  <c:v>228.60893000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>223.23555999999999</c:v>
+                  <c:v>223.45211</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>231.71774000000002</c:v>
+                  <c:v>231.86373999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>243.37436</c:v>
+                  <c:v>243.87798000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,8 +3518,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="408298576"/>
-        <c:axId val="408299136"/>
+        <c:axId val="656500592"/>
+        <c:axId val="656501152"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3597,10 +3597,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3630,11 +3630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408299696"/>
-        <c:axId val="408300256"/>
+        <c:axId val="656501712"/>
+        <c:axId val="656502272"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="408298576"/>
+        <c:axId val="656500592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3651,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="408299136"/>
+        <c:crossAx val="656501152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3662,7 +3662,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="408299136"/>
+        <c:axId val="656501152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -3690,13 +3690,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="408298576"/>
+        <c:crossAx val="656500592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408299696"/>
+        <c:axId val="656501712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="84"/>
@@ -3713,12 +3713,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="408300256"/>
+        <c:crossAx val="656502272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408300256"/>
+        <c:axId val="656502272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3735,7 +3735,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="408299696"/>
+        <c:crossAx val="656501712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3852,7 +3852,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -4332,13 +4332,13 @@
             <v>117.99299999999999</v>
           </cell>
           <cell r="I37">
-            <v>39.217000000000013</v>
+            <v>42.180000000000007</v>
           </cell>
           <cell r="J37">
-            <v>58.052999999999997</v>
+            <v>55.09</v>
           </cell>
           <cell r="K37">
-            <v>13.795714280999988</v>
+            <v>18.152999999999992</v>
           </cell>
         </row>
         <row r="38">
@@ -4355,10 +4355,10 @@
             <v>127.54300000000001</v>
           </cell>
           <cell r="I38">
-            <v>34.477850950000004</v>
+            <v>36.52985713999999</v>
           </cell>
           <cell r="J38">
-            <v>66.013149049999981</v>
+            <v>63.961142859999995</v>
           </cell>
           <cell r="K38">
             <v>12.334000000000003</v>
@@ -4608,13 +4608,13 @@
             <v>117.99299999999999</v>
           </cell>
           <cell r="I49">
-            <v>39.217000000000013</v>
+            <v>42.180000000000007</v>
           </cell>
           <cell r="J49">
-            <v>58.052999999999997</v>
+            <v>55.09</v>
           </cell>
           <cell r="K49">
-            <v>13.795714280999988</v>
+            <v>18.152999999999992</v>
           </cell>
         </row>
         <row r="50">
@@ -4631,10 +4631,10 @@
             <v>127.54300000000001</v>
           </cell>
           <cell r="I50">
-            <v>34.477850950000004</v>
+            <v>36.52985713999999</v>
           </cell>
           <cell r="J50">
-            <v>66.013149049999981</v>
+            <v>63.961142859999995</v>
           </cell>
           <cell r="K50">
             <v>12.334000000000003</v>
@@ -4884,13 +4884,13 @@
             <v>117.99299999999999</v>
           </cell>
           <cell r="I61">
-            <v>39.217000000000013</v>
+            <v>42.180000000000007</v>
           </cell>
           <cell r="J61">
-            <v>58.052999999999997</v>
+            <v>55.09</v>
           </cell>
           <cell r="K61">
-            <v>13.795714280999988</v>
+            <v>18.152999999999992</v>
           </cell>
         </row>
         <row r="62">
@@ -4907,10 +4907,10 @@
             <v>127.54300000000001</v>
           </cell>
           <cell r="I62">
-            <v>34.477850950000004</v>
+            <v>36.52985713999999</v>
           </cell>
           <cell r="J62">
-            <v>66.013149049999981</v>
+            <v>63.961142859999995</v>
           </cell>
           <cell r="K62">
             <v>12.334000000000003</v>
@@ -5160,13 +5160,13 @@
             <v>117.99299999999999</v>
           </cell>
           <cell r="I73">
-            <v>39.217000000000013</v>
+            <v>42.180000000000007</v>
           </cell>
           <cell r="J73">
-            <v>58.052999999999997</v>
+            <v>55.09</v>
           </cell>
           <cell r="K73">
-            <v>13.795714280999988</v>
+            <v>18.152999999999992</v>
           </cell>
         </row>
         <row r="74">
@@ -5183,10 +5183,10 @@
             <v>127.54300000000001</v>
           </cell>
           <cell r="I74">
-            <v>34.477850950000004</v>
+            <v>36.52985713999999</v>
           </cell>
           <cell r="J74">
-            <v>66.013149049999981</v>
+            <v>63.961142859999995</v>
           </cell>
           <cell r="K74">
             <v>12.334000000000003</v>
@@ -5427,22 +5427,22 @@
             <v>42675</v>
           </cell>
           <cell r="B85">
-            <v>156.33971428999999</v>
+            <v>160.173</v>
           </cell>
           <cell r="C85">
-            <v>229.05871428099999</v>
+            <v>233.416</v>
           </cell>
           <cell r="E85">
             <v>117.99299999999999</v>
           </cell>
           <cell r="I85">
-            <v>39.217000000000013</v>
+            <v>42.180000000000007</v>
           </cell>
           <cell r="J85">
-            <v>58.052999999999997</v>
+            <v>55.09</v>
           </cell>
           <cell r="K85">
-            <v>13.795714280999988</v>
+            <v>18.152999999999992</v>
           </cell>
         </row>
         <row r="86">
@@ -5450,19 +5450,19 @@
             <v>42705</v>
           </cell>
           <cell r="B86">
-            <v>162.02085095000001</v>
+            <v>164.07285714</v>
           </cell>
           <cell r="C86">
-            <v>236.105404771</v>
+            <v>236.88514285900001</v>
           </cell>
           <cell r="E86">
             <v>127.54300000000001</v>
           </cell>
           <cell r="I86">
-            <v>34.477850950000004</v>
+            <v>36.52985713999999</v>
           </cell>
           <cell r="J86">
-            <v>66.013149049999981</v>
+            <v>63.961142859999995</v>
           </cell>
           <cell r="K86">
             <v>12.334000000000003</v>
@@ -5473,10 +5473,10 @@
             <v>42736</v>
           </cell>
           <cell r="B87">
-            <v>158.64599999999999</v>
+            <v>170.17267548999999</v>
           </cell>
           <cell r="C87">
-            <v>245.31064000000001</v>
+            <v>258.57071535900002</v>
           </cell>
           <cell r="E87">
             <v>114.66800000000001</v>
@@ -5496,10 +5496,10 @@
             <v>42767</v>
           </cell>
           <cell r="B88">
-            <v>151.86170000000001</v>
+            <v>162.34540000000001</v>
           </cell>
           <cell r="C88">
-            <v>242.27832000000001</v>
+            <v>250.27099999999999</v>
           </cell>
           <cell r="E88">
             <v>113.10299999999999</v>
@@ -5519,10 +5519,10 @@
             <v>42795</v>
           </cell>
           <cell r="B89">
-            <v>148.0692</v>
+            <v>157.9442</v>
           </cell>
           <cell r="C89">
-            <v>233.65561000000002</v>
+            <v>238.477</v>
           </cell>
           <cell r="E89">
             <v>115.227</v>
@@ -5542,10 +5542,10 @@
             <v>42826</v>
           </cell>
           <cell r="B90">
-            <v>146.0652</v>
+            <v>155.5179</v>
           </cell>
           <cell r="C90">
-            <v>229.09199999999998</v>
+            <v>232.00303</v>
           </cell>
           <cell r="E90">
             <v>116.69199999999999</v>
@@ -5565,10 +5565,10 @@
             <v>42856</v>
           </cell>
           <cell r="B91">
-            <v>149.7663</v>
+            <v>158.87520000000001</v>
           </cell>
           <cell r="C91">
-            <v>228.20678000000001</v>
+            <v>229.96593999999999</v>
           </cell>
           <cell r="E91">
             <v>121.44499999999999</v>
@@ -5588,10 +5588,10 @@
             <v>42887</v>
           </cell>
           <cell r="B92">
-            <v>151.90559999999999</v>
+            <v>160.7234</v>
           </cell>
           <cell r="C92">
-            <v>229.39655999999999</v>
+            <v>230.46093999999999</v>
           </cell>
           <cell r="E92">
             <v>119.89</v>
@@ -5611,10 +5611,10 @@
             <v>42917</v>
           </cell>
           <cell r="B93">
-            <v>157.5967</v>
+            <v>166.15770000000001</v>
           </cell>
           <cell r="C93">
-            <v>229.62535000000003</v>
+            <v>230.27011999999999</v>
           </cell>
           <cell r="E93">
             <v>125.45699999999999</v>
@@ -5634,10 +5634,10 @@
             <v>42948</v>
           </cell>
           <cell r="B94">
-            <v>161.1584</v>
+            <v>169.48580000000001</v>
           </cell>
           <cell r="C94">
-            <v>225.60679000000002</v>
+            <v>225.99796000000001</v>
           </cell>
           <cell r="E94">
             <v>127.309</v>
@@ -5657,10 +5657,10 @@
             <v>42979</v>
           </cell>
           <cell r="B95">
-            <v>159.2627</v>
+            <v>167.3724</v>
           </cell>
           <cell r="C95">
-            <v>226.55887000000001</v>
+            <v>226.79655</v>
           </cell>
           <cell r="E95">
             <v>127.384</v>
@@ -5680,10 +5680,10 @@
             <v>43009</v>
           </cell>
           <cell r="B96">
-            <v>152.53579999999999</v>
+            <v>160.4418</v>
           </cell>
           <cell r="C96">
-            <v>221.32413</v>
+            <v>221.46883</v>
           </cell>
           <cell r="E96">
             <v>118.035</v>
@@ -5703,22 +5703,22 @@
             <v>43040</v>
           </cell>
           <cell r="B97">
-            <v>154.6139</v>
+            <v>162.33340000000001</v>
           </cell>
           <cell r="C97">
-            <v>229.82012</v>
+            <v>229.90840000000003</v>
           </cell>
           <cell r="E97">
             <v>117.99299999999999</v>
           </cell>
           <cell r="I97">
-            <v>39.217000000000013</v>
+            <v>42.180000000000007</v>
           </cell>
           <cell r="J97">
-            <v>58.052999999999997</v>
+            <v>55.09</v>
           </cell>
           <cell r="K97">
-            <v>13.795714280999988</v>
+            <v>18.152999999999992</v>
           </cell>
         </row>
         <row r="98">
@@ -5726,19 +5726,19 @@
             <v>43070</v>
           </cell>
           <cell r="B98">
-            <v>159.58009999999999</v>
+            <v>167.21539999999999</v>
           </cell>
           <cell r="C98">
-            <v>240.90970000000002</v>
+            <v>241.36967999999999</v>
           </cell>
           <cell r="E98">
             <v>127.54300000000001</v>
           </cell>
           <cell r="I98">
-            <v>34.477850950000004</v>
+            <v>36.52985713999999</v>
           </cell>
           <cell r="J98">
-            <v>66.013149049999981</v>
+            <v>63.961142859999995</v>
           </cell>
           <cell r="K98">
             <v>12.334000000000003</v>
@@ -5749,10 +5749,10 @@
             <v>43101</v>
           </cell>
           <cell r="B99">
-            <v>156.36949999999999</v>
+            <v>163.8683</v>
           </cell>
           <cell r="C99">
-            <v>248.94657000000001</v>
+            <v>249.29425000000001</v>
           </cell>
           <cell r="E99">
             <v>114.66800000000001</v>
@@ -5772,10 +5772,10 @@
             <v>43132</v>
           </cell>
           <cell r="B100">
-            <v>148.7782</v>
+            <v>156.36500000000001</v>
           </cell>
           <cell r="C100">
-            <v>245.88207</v>
+            <v>247.41799</v>
           </cell>
           <cell r="E100">
             <v>113.10299999999999</v>
@@ -5795,10 +5795,10 @@
             <v>43160</v>
           </cell>
           <cell r="B101">
-            <v>144.73500000000001</v>
+            <v>152.19120000000001</v>
           </cell>
           <cell r="C101">
-            <v>237.56084999999999</v>
+            <v>239.28563</v>
           </cell>
           <cell r="E101">
             <v>115.227</v>
@@ -5818,10 +5818,10 @@
             <v>43191</v>
           </cell>
           <cell r="B102">
-            <v>142.81440000000001</v>
+            <v>150.20830000000001</v>
           </cell>
           <cell r="C102">
-            <v>232.79603</v>
+            <v>234.31788</v>
           </cell>
           <cell r="E102">
             <v>116.69199999999999</v>
@@ -5841,10 +5841,10 @@
             <v>43221</v>
           </cell>
           <cell r="B103">
-            <v>146.66229999999999</v>
+            <v>153.9221</v>
           </cell>
           <cell r="C103">
-            <v>231.31909000000002</v>
+            <v>232.52828</v>
           </cell>
           <cell r="E103">
             <v>121.44499999999999</v>
@@ -5864,10 +5864,10 @@
             <v>43252</v>
           </cell>
           <cell r="B104">
-            <v>148.7927</v>
+            <v>155.93790000000001</v>
           </cell>
           <cell r="C104">
-            <v>231.99421000000001</v>
+            <v>232.90031000000002</v>
           </cell>
           <cell r="E104">
             <v>119.89</v>
@@ -5887,10 +5887,10 @@
             <v>43282</v>
           </cell>
           <cell r="B105">
-            <v>154.5446</v>
+            <v>161.5864</v>
           </cell>
           <cell r="C105">
-            <v>231.65725999999998</v>
+            <v>232.31128999999999</v>
           </cell>
           <cell r="E105">
             <v>125.45699999999999</v>
@@ -5910,10 +5910,10 @@
             <v>43313</v>
           </cell>
           <cell r="B106">
-            <v>158.3501</v>
+            <v>165.2927</v>
           </cell>
           <cell r="C106">
-            <v>227.90962000000002</v>
+            <v>228.36971</v>
           </cell>
           <cell r="E106">
             <v>127.309</v>
@@ -5933,10 +5933,10 @@
             <v>43344</v>
           </cell>
           <cell r="B107">
-            <v>156.55070000000001</v>
+            <v>163.3938</v>
           </cell>
           <cell r="C107">
-            <v>228.29114000000001</v>
+            <v>228.60893000000002</v>
           </cell>
           <cell r="E107">
             <v>127.384</v>
@@ -5956,10 +5956,10 @@
             <v>43374</v>
           </cell>
           <cell r="B108">
-            <v>149.8261</v>
+            <v>156.57</v>
           </cell>
           <cell r="C108">
-            <v>223.23555999999999</v>
+            <v>223.45211</v>
           </cell>
           <cell r="E108">
             <v>118.035</v>
@@ -5979,22 +5979,22 @@
             <v>43405</v>
           </cell>
           <cell r="B109">
-            <v>151.88399999999999</v>
+            <v>158.5341</v>
           </cell>
           <cell r="C109">
-            <v>231.71774000000002</v>
+            <v>231.86373999999998</v>
           </cell>
           <cell r="E109">
             <v>117.99299999999999</v>
           </cell>
           <cell r="I109">
-            <v>39.217000000000013</v>
+            <v>42.180000000000007</v>
           </cell>
           <cell r="J109">
-            <v>58.052999999999997</v>
+            <v>55.09</v>
           </cell>
           <cell r="K109">
-            <v>13.795714280999988</v>
+            <v>18.152999999999992</v>
           </cell>
         </row>
         <row r="110">
@@ -6002,19 +6002,19 @@
             <v>43435</v>
           </cell>
           <cell r="B110">
-            <v>156.95910000000001</v>
+            <v>163.608</v>
           </cell>
           <cell r="C110">
-            <v>243.37436</v>
+            <v>243.87798000000001</v>
           </cell>
           <cell r="E110">
             <v>127.54300000000001</v>
           </cell>
           <cell r="I110">
-            <v>34.477850950000004</v>
+            <v>36.52985713999999</v>
           </cell>
           <cell r="J110">
-            <v>66.013149049999981</v>
+            <v>63.961142859999995</v>
           </cell>
           <cell r="K110">
             <v>12.334000000000003</v>
@@ -6022,7 +6022,7 @@
         </row>
         <row r="115">
           <cell r="A115">
-            <v>60</v>
+            <v>61</v>
           </cell>
           <cell r="B115">
             <v>0</v>
@@ -6030,7 +6030,7 @@
         </row>
         <row r="116">
           <cell r="A116">
-            <v>60</v>
+            <v>61</v>
           </cell>
           <cell r="B116">
             <v>1</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="F37" s="12">
         <f>MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>157.21</v>
+        <v>160.173</v>
       </c>
       <c r="G37" s="12">
         <f>MIN($C$37,$C$49,$C$61,$C$73,$C$85)</f>
@@ -6815,19 +6815,19 @@
       </c>
       <c r="H37" s="12">
         <f>MAX($C$37,$C$49,$C$61,$C$73,$C$85)</f>
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="0"/>
-        <v>39.217000000000013</v>
+        <v>42.180000000000007</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="0"/>
-        <v>58.052999999999997</v>
+        <v>55.09</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" si="0"/>
-        <v>13.795714280999988</v>
+        <v>18.152999999999992</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="F38" s="12">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="G38" s="12">
         <f>MIN($C$38,$C$50,$C$62,$C$74,$C$86)</f>
@@ -6858,11 +6858,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="0"/>
-        <v>34.477850950000004</v>
+        <v>36.52985713999999</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="0"/>
-        <v>66.013149049999981</v>
+        <v>63.961142859999995</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="0"/>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="F49" s="12">
         <f>MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>157.21</v>
+        <v>160.173</v>
       </c>
       <c r="G49" s="12">
         <f>MIN($C$37,$C$49,$C$61,$C$73,$C$85)</f>
@@ -7283,19 +7283,19 @@
       </c>
       <c r="H49" s="12">
         <f>MAX($C$37,$C$49,$C$61,$C$73,$C$85)</f>
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="I49" s="11">
         <f t="shared" si="0"/>
-        <v>39.217000000000013</v>
+        <v>42.180000000000007</v>
       </c>
       <c r="J49" s="11">
         <f t="shared" si="0"/>
-        <v>58.052999999999997</v>
+        <v>55.09</v>
       </c>
       <c r="K49" s="11">
         <f t="shared" si="0"/>
-        <v>13.795714280999988</v>
+        <v>18.152999999999992</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="F50" s="12">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="G50" s="12">
         <f>MIN($C$38,$C$50,$C$62,$C$74,$C$86)</f>
@@ -7326,11 +7326,11 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="0"/>
-        <v>34.477850950000004</v>
+        <v>36.52985713999999</v>
       </c>
       <c r="J50" s="11">
         <f t="shared" si="0"/>
-        <v>66.013149049999981</v>
+        <v>63.961142859999995</v>
       </c>
       <c r="K50" s="11">
         <f t="shared" si="0"/>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="F61" s="12">
         <f>MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>157.21</v>
+        <v>160.173</v>
       </c>
       <c r="G61" s="12">
         <f>MIN($C$37,$C$49,$C$61,$C$73,$C$85)</f>
@@ -7751,19 +7751,19 @@
       </c>
       <c r="H61" s="12">
         <f>MAX($C$37,$C$49,$C$61,$C$73,$C$85)</f>
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="I61" s="11">
         <f t="shared" si="1"/>
-        <v>39.217000000000013</v>
+        <v>42.180000000000007</v>
       </c>
       <c r="J61" s="11">
         <f t="shared" si="1"/>
-        <v>58.052999999999997</v>
+        <v>55.09</v>
       </c>
       <c r="K61" s="11">
         <f t="shared" si="1"/>
-        <v>13.795714280999988</v>
+        <v>18.152999999999992</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="F62" s="12">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="G62" s="12">
         <f>MIN($C$38,$C$50,$C$62,$C$74,$C$86)</f>
@@ -7794,11 +7794,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="1"/>
-        <v>34.477850950000004</v>
+        <v>36.52985713999999</v>
       </c>
       <c r="J62" s="11">
         <f t="shared" si="1"/>
-        <v>66.013149049999981</v>
+        <v>63.961142859999995</v>
       </c>
       <c r="K62" s="11">
         <f t="shared" si="1"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="F73" s="12">
         <f>MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>157.21</v>
+        <v>160.173</v>
       </c>
       <c r="G73" s="12">
         <f>MIN($C$37,$C$49,$C$61,$C$73,$C$85)</f>
@@ -8219,19 +8219,19 @@
       </c>
       <c r="H73" s="12">
         <f>MAX($C$37,$C$49,$C$61,$C$73,$C$85)</f>
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="I73" s="11">
         <f t="shared" si="1"/>
-        <v>39.217000000000013</v>
+        <v>42.180000000000007</v>
       </c>
       <c r="J73" s="11">
         <f t="shared" si="1"/>
-        <v>58.052999999999997</v>
+        <v>55.09</v>
       </c>
       <c r="K73" s="11">
         <f t="shared" si="1"/>
-        <v>13.795714280999988</v>
+        <v>18.152999999999992</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="F74" s="12">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="G74" s="12">
         <f>MIN($C$38,$C$50,$C$62,$C$74,$C$86)</f>
@@ -8262,11 +8262,11 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="1"/>
-        <v>34.477850950000004</v>
+        <v>36.52985713999999</v>
       </c>
       <c r="J74" s="11">
         <f t="shared" si="1"/>
-        <v>66.013149049999981</v>
+        <v>63.961142859999995</v>
       </c>
       <c r="K74" s="11">
         <f t="shared" si="1"/>
@@ -8668,10 +8668,10 @@
         <v>42675</v>
       </c>
       <c r="B85" s="11">
-        <v>156.33971428999999</v>
+        <v>160.173</v>
       </c>
       <c r="C85" s="11">
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="E85" s="12">
         <f>MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="F85" s="12">
         <f>MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>157.21</v>
+        <v>160.173</v>
       </c>
       <c r="G85" s="12">
         <f>MIN($C$37,$C$49,$C$61,$C$73,$C$85)</f>
@@ -8687,19 +8687,19 @@
       </c>
       <c r="H85" s="12">
         <f>MAX($C$37,$C$49,$C$61,$C$73,$C$85)</f>
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="I85" s="11">
         <f t="shared" si="1"/>
-        <v>39.217000000000013</v>
+        <v>42.180000000000007</v>
       </c>
       <c r="J85" s="11">
         <f t="shared" si="1"/>
-        <v>58.052999999999997</v>
+        <v>55.09</v>
       </c>
       <c r="K85" s="11">
         <f t="shared" si="1"/>
-        <v>13.795714280999988</v>
+        <v>18.152999999999992</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8707,10 +8707,10 @@
         <v>42705</v>
       </c>
       <c r="B86" s="11">
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="C86" s="11">
-        <v>236.105404771</v>
+        <v>236.88514285900001</v>
       </c>
       <c r="E86" s="12">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="F86" s="12">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="G86" s="12">
         <f>MIN($C$38,$C$50,$C$62,$C$74,$C$86)</f>
@@ -8730,11 +8730,11 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="1"/>
-        <v>34.477850950000004</v>
+        <v>36.52985713999999</v>
       </c>
       <c r="J86" s="11">
         <f t="shared" si="1"/>
-        <v>66.013149049999981</v>
+        <v>63.961142859999995</v>
       </c>
       <c r="K86" s="11">
         <f t="shared" si="1"/>
@@ -8746,10 +8746,10 @@
         <v>42736</v>
       </c>
       <c r="B87" s="11">
-        <v>158.64599999999999</v>
+        <v>170.17267548999999</v>
       </c>
       <c r="C87" s="11">
-        <v>245.31064000000001</v>
+        <v>258.57071535900002</v>
       </c>
       <c r="E87" s="12">
         <f>MIN($B$27,$B$39,$B$51,$B$63,$B$75)</f>
@@ -8785,10 +8785,10 @@
         <v>42767</v>
       </c>
       <c r="B88" s="11">
-        <v>151.86170000000001</v>
+        <v>162.34540000000001</v>
       </c>
       <c r="C88" s="11">
-        <v>242.27832000000001</v>
+        <v>250.27099999999999</v>
       </c>
       <c r="E88" s="12">
         <f>MIN($B$28,$B$40,$B$52,$B$64,$B$76)</f>
@@ -8824,10 +8824,10 @@
         <v>42795</v>
       </c>
       <c r="B89" s="11">
-        <v>148.0692</v>
+        <v>157.9442</v>
       </c>
       <c r="C89" s="11">
-        <v>233.65561000000002</v>
+        <v>238.477</v>
       </c>
       <c r="E89" s="12">
         <f>MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
@@ -8863,10 +8863,10 @@
         <v>42826</v>
       </c>
       <c r="B90" s="11">
-        <v>146.0652</v>
+        <v>155.5179</v>
       </c>
       <c r="C90" s="11">
-        <v>229.09199999999998</v>
+        <v>232.00303</v>
       </c>
       <c r="E90" s="12">
         <f>MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
@@ -8902,10 +8902,10 @@
         <v>42856</v>
       </c>
       <c r="B91" s="11">
-        <v>149.7663</v>
+        <v>158.87520000000001</v>
       </c>
       <c r="C91" s="11">
-        <v>228.20678000000001</v>
+        <v>229.96593999999999</v>
       </c>
       <c r="E91" s="12">
         <f>MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
@@ -8941,10 +8941,10 @@
         <v>42887</v>
       </c>
       <c r="B92" s="11">
-        <v>151.90559999999999</v>
+        <v>160.7234</v>
       </c>
       <c r="C92" s="11">
-        <v>229.39655999999999</v>
+        <v>230.46093999999999</v>
       </c>
       <c r="E92" s="12">
         <f>MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
@@ -8980,10 +8980,10 @@
         <v>42917</v>
       </c>
       <c r="B93" s="11">
-        <v>157.5967</v>
+        <v>166.15770000000001</v>
       </c>
       <c r="C93" s="11">
-        <v>229.62535000000003</v>
+        <v>230.27011999999999</v>
       </c>
       <c r="E93" s="12">
         <f>MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
@@ -9019,10 +9019,10 @@
         <v>42948</v>
       </c>
       <c r="B94" s="11">
-        <v>161.1584</v>
+        <v>169.48580000000001</v>
       </c>
       <c r="C94" s="11">
-        <v>225.60679000000002</v>
+        <v>225.99796000000001</v>
       </c>
       <c r="E94" s="12">
         <f>MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
@@ -9058,10 +9058,10 @@
         <v>42979</v>
       </c>
       <c r="B95" s="11">
-        <v>159.2627</v>
+        <v>167.3724</v>
       </c>
       <c r="C95" s="11">
-        <v>226.55887000000001</v>
+        <v>226.79655</v>
       </c>
       <c r="E95" s="12">
         <f>MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
@@ -9097,10 +9097,10 @@
         <v>43009</v>
       </c>
       <c r="B96" s="11">
-        <v>152.53579999999999</v>
+        <v>160.4418</v>
       </c>
       <c r="C96" s="11">
-        <v>221.32413</v>
+        <v>221.46883</v>
       </c>
       <c r="E96" s="12">
         <f>MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
@@ -9136,10 +9136,10 @@
         <v>43040</v>
       </c>
       <c r="B97" s="11">
-        <v>154.6139</v>
+        <v>162.33340000000001</v>
       </c>
       <c r="C97" s="11">
-        <v>229.82012</v>
+        <v>229.90840000000003</v>
       </c>
       <c r="E97" s="12">
         <f>MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="F97" s="12">
         <f>MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>157.21</v>
+        <v>160.173</v>
       </c>
       <c r="G97" s="12">
         <f>MIN($C$37,$C$49,$C$61,$C$73,$C$85)</f>
@@ -9155,19 +9155,19 @@
       </c>
       <c r="H97" s="12">
         <f>MAX($C$37,$C$49,$C$61,$C$73,$C$85)</f>
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="I97" s="11">
         <f t="shared" si="2"/>
-        <v>39.217000000000013</v>
+        <v>42.180000000000007</v>
       </c>
       <c r="J97" s="11">
         <f t="shared" si="2"/>
-        <v>58.052999999999997</v>
+        <v>55.09</v>
       </c>
       <c r="K97" s="11">
         <f t="shared" si="2"/>
-        <v>13.795714280999988</v>
+        <v>18.152999999999992</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -9175,10 +9175,10 @@
         <v>43070</v>
       </c>
       <c r="B98" s="11">
-        <v>159.58009999999999</v>
+        <v>167.21539999999999</v>
       </c>
       <c r="C98" s="11">
-        <v>240.90970000000002</v>
+        <v>241.36967999999999</v>
       </c>
       <c r="E98" s="12">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="F98" s="12">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="G98" s="12">
         <f>MIN($C$38,$C$50,$C$62,$C$74,$C$86)</f>
@@ -9198,11 +9198,11 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="2"/>
-        <v>34.477850950000004</v>
+        <v>36.52985713999999</v>
       </c>
       <c r="J98" s="11">
         <f t="shared" si="2"/>
-        <v>66.013149049999981</v>
+        <v>63.961142859999995</v>
       </c>
       <c r="K98" s="11">
         <f t="shared" si="2"/>
@@ -9214,10 +9214,10 @@
         <v>43101</v>
       </c>
       <c r="B99" s="11">
-        <v>156.36949999999999</v>
+        <v>163.8683</v>
       </c>
       <c r="C99" s="11">
-        <v>248.94657000000001</v>
+        <v>249.29425000000001</v>
       </c>
       <c r="E99" s="12">
         <f>MIN($B$27,$B$39,$B$51,$B$63,$B$75)</f>
@@ -9253,10 +9253,10 @@
         <v>43132</v>
       </c>
       <c r="B100" s="11">
-        <v>148.7782</v>
+        <v>156.36500000000001</v>
       </c>
       <c r="C100" s="11">
-        <v>245.88207</v>
+        <v>247.41799</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="12">
@@ -9293,10 +9293,10 @@
         <v>43160</v>
       </c>
       <c r="B101" s="11">
-        <v>144.73500000000001</v>
+        <v>152.19120000000001</v>
       </c>
       <c r="C101" s="11">
-        <v>237.56084999999999</v>
+        <v>239.28563</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="12">
@@ -9333,10 +9333,10 @@
         <v>43191</v>
       </c>
       <c r="B102" s="11">
-        <v>142.81440000000001</v>
+        <v>150.20830000000001</v>
       </c>
       <c r="C102" s="11">
-        <v>232.79603</v>
+        <v>234.31788</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="12">
@@ -9373,10 +9373,10 @@
         <v>43221</v>
       </c>
       <c r="B103" s="11">
-        <v>146.66229999999999</v>
+        <v>153.9221</v>
       </c>
       <c r="C103" s="11">
-        <v>231.31909000000002</v>
+        <v>232.52828</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="12">
@@ -9413,10 +9413,10 @@
         <v>43252</v>
       </c>
       <c r="B104" s="11">
-        <v>148.7927</v>
+        <v>155.93790000000001</v>
       </c>
       <c r="C104" s="11">
-        <v>231.99421000000001</v>
+        <v>232.90031000000002</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="12">
@@ -9453,10 +9453,10 @@
         <v>43282</v>
       </c>
       <c r="B105" s="11">
-        <v>154.5446</v>
+        <v>161.5864</v>
       </c>
       <c r="C105" s="11">
-        <v>231.65725999999998</v>
+        <v>232.31128999999999</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="12">
@@ -9493,10 +9493,10 @@
         <v>43313</v>
       </c>
       <c r="B106" s="11">
-        <v>158.3501</v>
+        <v>165.2927</v>
       </c>
       <c r="C106" s="11">
-        <v>227.90962000000002</v>
+        <v>228.36971</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="12">
@@ -9533,10 +9533,10 @@
         <v>43344</v>
       </c>
       <c r="B107" s="11">
-        <v>156.55070000000001</v>
+        <v>163.3938</v>
       </c>
       <c r="C107" s="11">
-        <v>228.29114000000001</v>
+        <v>228.60893000000002</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="12">
@@ -9573,10 +9573,10 @@
         <v>43374</v>
       </c>
       <c r="B108" s="11">
-        <v>149.8261</v>
+        <v>156.57</v>
       </c>
       <c r="C108" s="11">
-        <v>223.23555999999999</v>
+        <v>223.45211</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="12">
@@ -9613,10 +9613,10 @@
         <v>43405</v>
       </c>
       <c r="B109" s="11">
-        <v>151.88399999999999</v>
+        <v>158.5341</v>
       </c>
       <c r="C109" s="11">
-        <v>231.71774000000002</v>
+        <v>231.86373999999998</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="12">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="F109" s="12">
         <f>MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>157.21</v>
+        <v>160.173</v>
       </c>
       <c r="G109" s="12">
         <f>MIN($C$37,$C$49,$C$61,$C$73,$C$85)</f>
@@ -9633,19 +9633,19 @@
       </c>
       <c r="H109" s="12">
         <f>MAX($C$37,$C$49,$C$61,$C$73,$C$85)</f>
-        <v>229.05871428099999</v>
+        <v>233.416</v>
       </c>
       <c r="I109" s="11">
         <f t="shared" si="3"/>
-        <v>39.217000000000013</v>
+        <v>42.180000000000007</v>
       </c>
       <c r="J109" s="11">
         <f t="shared" si="3"/>
-        <v>58.052999999999997</v>
+        <v>55.09</v>
       </c>
       <c r="K109" s="11">
         <f t="shared" si="3"/>
-        <v>13.795714280999988</v>
+        <v>18.152999999999992</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -9653,10 +9653,10 @@
         <v>43435</v>
       </c>
       <c r="B110" s="16">
-        <v>156.95910000000001</v>
+        <v>163.608</v>
       </c>
       <c r="C110" s="16">
-        <v>243.37436</v>
+        <v>243.87798000000001</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="F110" s="17">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>162.02085095000001</v>
+        <v>164.07285714</v>
       </c>
       <c r="G110" s="17">
         <f>MIN($C$38,$C$50,$C$62,$C$74,$C$86)</f>
@@ -9677,11 +9677,11 @@
       </c>
       <c r="I110" s="16">
         <f t="shared" si="3"/>
-        <v>34.477850950000004</v>
+        <v>36.52985713999999</v>
       </c>
       <c r="J110" s="16">
         <f t="shared" si="3"/>
-        <v>66.013149049999981</v>
+        <v>63.961142859999995</v>
       </c>
       <c r="K110" s="16">
         <f t="shared" si="3"/>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
